--- a/resultados/Venda de Drone/Com SPAD 3 Drones/vel05/field_16ha_100ha_14%_12m_0_LM/Planilha_Unificada.xlsx
+++ b/resultados/Venda de Drone/Com SPAD 3 Drones/vel05/field_16ha_100ha_14%_12m_0_LM/Planilha_Unificada.xlsx
@@ -2227,28 +2227,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>323.4669296963863</v>
+        <v>396.2830677824315</v>
       </c>
       <c r="AB2" t="n">
-        <v>442.5817235643839</v>
+        <v>542.2119761150018</v>
       </c>
       <c r="AC2" t="n">
-        <v>400.3423450347487</v>
+        <v>490.4640261138734</v>
       </c>
       <c r="AD2" t="n">
-        <v>323466.9296963863</v>
+        <v>396283.0677824315</v>
       </c>
       <c r="AE2" t="n">
-        <v>442581.7235643839</v>
+        <v>542211.9761150018</v>
       </c>
       <c r="AF2" t="n">
-        <v>1.426492944410341e-06</v>
+        <v>2.411557099686455e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>15</v>
+        <v>14.20138888888889</v>
       </c>
       <c r="AH2" t="n">
-        <v>400342.3450347487</v>
+        <v>490464.0261138735</v>
       </c>
     </row>
     <row r="3">
@@ -2333,28 +2333,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>238.4724771672944</v>
+        <v>300.78879019419</v>
       </c>
       <c r="AB3" t="n">
-        <v>326.2885639233211</v>
+        <v>411.5524926085753</v>
       </c>
       <c r="AC3" t="n">
-        <v>295.148041331452</v>
+        <v>372.2745003315632</v>
       </c>
       <c r="AD3" t="n">
-        <v>238472.4771672944</v>
+        <v>300788.79019419</v>
       </c>
       <c r="AE3" t="n">
-        <v>326288.5639233211</v>
+        <v>411552.4926085753</v>
       </c>
       <c r="AF3" t="n">
-        <v>1.793468139488709e-06</v>
+        <v>3.031946874881508e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>12</v>
+        <v>11.29340277777778</v>
       </c>
       <c r="AH3" t="n">
-        <v>295148.041331452</v>
+        <v>372274.5003315632</v>
       </c>
     </row>
     <row r="4">
@@ -2439,28 +2439,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>210.305072627896</v>
+        <v>262.2922423047822</v>
       </c>
       <c r="AB4" t="n">
-        <v>287.7486783743498</v>
+        <v>358.8798174384578</v>
       </c>
       <c r="AC4" t="n">
-        <v>260.2863483681931</v>
+        <v>324.6288313531179</v>
       </c>
       <c r="AD4" t="n">
-        <v>210305.072627896</v>
+        <v>262292.2423047822</v>
       </c>
       <c r="AE4" t="n">
-        <v>287748.6783743498</v>
+        <v>358879.8174384578</v>
       </c>
       <c r="AF4" t="n">
-        <v>1.946518410073168e-06</v>
+        <v>3.290685951077536e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>11</v>
+        <v>10.40798611111111</v>
       </c>
       <c r="AH4" t="n">
-        <v>260286.3483681931</v>
+        <v>324628.8313531179</v>
       </c>
     </row>
     <row r="5">
@@ -2545,28 +2545,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>202.030135227429</v>
+        <v>254.0173049043118</v>
       </c>
       <c r="AB5" t="n">
-        <v>276.4265439585633</v>
+        <v>347.5576830224969</v>
       </c>
       <c r="AC5" t="n">
-        <v>250.0447825703302</v>
+        <v>314.3872655552054</v>
       </c>
       <c r="AD5" t="n">
-        <v>202030.135227429</v>
+        <v>254017.3049043118</v>
       </c>
       <c r="AE5" t="n">
-        <v>276426.5439585633</v>
+        <v>347557.6830224969</v>
       </c>
       <c r="AF5" t="n">
-        <v>2.004615424482916e-06</v>
+        <v>3.388901836490364e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>11</v>
+        <v>10.10416666666667</v>
       </c>
       <c r="AH5" t="n">
-        <v>250044.7825703302</v>
+        <v>314387.2655552053</v>
       </c>
     </row>
     <row r="6">
@@ -2651,28 +2651,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>185.8532046168413</v>
+        <v>248.1694281351822</v>
       </c>
       <c r="AB6" t="n">
-        <v>254.2925538213586</v>
+        <v>339.5563600368628</v>
       </c>
       <c r="AC6" t="n">
-        <v>230.023229386563</v>
+        <v>307.1495776053903</v>
       </c>
       <c r="AD6" t="n">
-        <v>185853.2046168413</v>
+        <v>248169.4281351822</v>
       </c>
       <c r="AE6" t="n">
-        <v>254292.5538213586</v>
+        <v>339556.3600368628</v>
       </c>
       <c r="AF6" t="n">
-        <v>2.043175596361142e-06</v>
+        <v>3.454089720259746e-06</v>
       </c>
       <c r="AG6" t="n">
-        <v>10</v>
+        <v>9.913194444444445</v>
       </c>
       <c r="AH6" t="n">
-        <v>230023.229386563</v>
+        <v>307149.5776053903</v>
       </c>
     </row>
   </sheetData>
@@ -2948,28 +2948,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>258.5982895765047</v>
+        <v>329.146923628954</v>
       </c>
       <c r="AB2" t="n">
-        <v>353.8255883499358</v>
+        <v>450.35334184657</v>
       </c>
       <c r="AC2" t="n">
-        <v>320.0569707951493</v>
+        <v>407.3722509756177</v>
       </c>
       <c r="AD2" t="n">
-        <v>258598.2895765047</v>
+        <v>329146.923628954</v>
       </c>
       <c r="AE2" t="n">
-        <v>353825.5883499358</v>
+        <v>450353.34184657</v>
       </c>
       <c r="AF2" t="n">
-        <v>1.646909568507477e-06</v>
+        <v>2.852103180879112e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>13</v>
+        <v>12.72569444444444</v>
       </c>
       <c r="AH2" t="n">
-        <v>320056.9707951493</v>
+        <v>407372.2509756177</v>
       </c>
     </row>
     <row r="3">
@@ -3054,28 +3054,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>201.1895935023165</v>
+        <v>261.6476597109082</v>
       </c>
       <c r="AB3" t="n">
-        <v>275.2764776881813</v>
+        <v>357.9978710965423</v>
       </c>
       <c r="AC3" t="n">
-        <v>249.0044770106649</v>
+        <v>323.8310567322554</v>
       </c>
       <c r="AD3" t="n">
-        <v>201189.5935023165</v>
+        <v>261647.6597109081</v>
       </c>
       <c r="AE3" t="n">
-        <v>275276.4776881813</v>
+        <v>357997.8710965423</v>
       </c>
       <c r="AF3" t="n">
-        <v>1.982424684032899e-06</v>
+        <v>3.433145240820689e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>11</v>
+        <v>10.57291666666667</v>
       </c>
       <c r="AH3" t="n">
-        <v>249004.4770106649</v>
+        <v>323831.0567322554</v>
       </c>
     </row>
     <row r="4">
@@ -3160,28 +3160,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>175.6711718279116</v>
+        <v>226.1240110472116</v>
       </c>
       <c r="AB4" t="n">
-        <v>240.3610473599682</v>
+        <v>309.3928478019556</v>
       </c>
       <c r="AC4" t="n">
-        <v>217.4213263488512</v>
+        <v>279.8648286434176</v>
       </c>
       <c r="AD4" t="n">
-        <v>175671.1718279116</v>
+        <v>226124.0110472117</v>
       </c>
       <c r="AE4" t="n">
-        <v>240361.0473599682</v>
+        <v>309392.8478019556</v>
       </c>
       <c r="AF4" t="n">
-        <v>2.12462320978527e-06</v>
+        <v>3.679403368996e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>10</v>
+        <v>9.861111111111111</v>
       </c>
       <c r="AH4" t="n">
-        <v>217421.3263488512</v>
+        <v>279864.8286434176</v>
       </c>
     </row>
     <row r="5">
@@ -3266,28 +3266,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>172.1615846743595</v>
+        <v>222.6144238936594</v>
       </c>
       <c r="AB5" t="n">
-        <v>235.5590753844229</v>
+        <v>304.5908758264102</v>
       </c>
       <c r="AC5" t="n">
-        <v>213.0776478390404</v>
+        <v>275.5211501336068</v>
       </c>
       <c r="AD5" t="n">
-        <v>172161.5846743595</v>
+        <v>222614.4238936595</v>
       </c>
       <c r="AE5" t="n">
-        <v>235559.0753844229</v>
+        <v>304590.8758264102</v>
       </c>
       <c r="AF5" t="n">
-        <v>2.156689713809578e-06</v>
+        <v>3.734935852306717e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>10</v>
+        <v>9.722222222222221</v>
       </c>
       <c r="AH5" t="n">
-        <v>213077.6478390404</v>
+        <v>275521.1501336068</v>
       </c>
     </row>
   </sheetData>
@@ -3563,28 +3563,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>145.9620584455692</v>
+        <v>200.4835704127173</v>
       </c>
       <c r="AB2" t="n">
-        <v>199.7117277566879</v>
+        <v>274.3104657494518</v>
       </c>
       <c r="AC2" t="n">
-        <v>180.6515207568166</v>
+        <v>248.1306598955612</v>
       </c>
       <c r="AD2" t="n">
-        <v>145962.0584455692</v>
+        <v>200483.5704127174</v>
       </c>
       <c r="AE2" t="n">
-        <v>199711.7277566879</v>
+        <v>274310.4657494518</v>
       </c>
       <c r="AF2" t="n">
-        <v>2.34137415772887e-06</v>
+        <v>4.430383746071375e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>10</v>
+        <v>9.991319444444445</v>
       </c>
       <c r="AH2" t="n">
-        <v>180651.5207568166</v>
+        <v>248130.6598955612</v>
       </c>
     </row>
     <row r="3">
@@ -3669,28 +3669,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>145.7941605184475</v>
+        <v>200.3156724855957</v>
       </c>
       <c r="AB3" t="n">
-        <v>199.4820024056664</v>
+        <v>274.0807403984302</v>
       </c>
       <c r="AC3" t="n">
-        <v>180.4437200708749</v>
+        <v>247.9228592096196</v>
       </c>
       <c r="AD3" t="n">
-        <v>145794.1605184475</v>
+        <v>200315.6724855957</v>
       </c>
       <c r="AE3" t="n">
-        <v>199482.0024056664</v>
+        <v>274080.7403984302</v>
       </c>
       <c r="AF3" t="n">
-        <v>2.352097844289851e-06</v>
+        <v>4.450675268671855e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>10</v>
+        <v>9.947916666666666</v>
       </c>
       <c r="AH3" t="n">
-        <v>180443.720070875</v>
+        <v>247922.8592096196</v>
       </c>
     </row>
   </sheetData>
@@ -3966,28 +3966,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>181.8361696323503</v>
+        <v>238.7306134516126</v>
       </c>
       <c r="AB2" t="n">
-        <v>248.7962693365047</v>
+        <v>326.6417573756945</v>
       </c>
       <c r="AC2" t="n">
-        <v>225.0515025788581</v>
+        <v>295.4675264964411</v>
       </c>
       <c r="AD2" t="n">
-        <v>181836.1696323503</v>
+        <v>238730.6134516126</v>
       </c>
       <c r="AE2" t="n">
-        <v>248796.2693365047</v>
+        <v>326641.7573756945</v>
       </c>
       <c r="AF2" t="n">
-        <v>2.073866734767284e-06</v>
+        <v>3.778134799193965e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>11</v>
+        <v>10.78993055555556</v>
       </c>
       <c r="AH2" t="n">
-        <v>225051.5025788581</v>
+        <v>295467.526496441</v>
       </c>
     </row>
     <row r="3">
@@ -4072,28 +4072,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>155.7160734375639</v>
+        <v>203.1992273324256</v>
       </c>
       <c r="AB3" t="n">
-        <v>213.0576013854996</v>
+        <v>278.0261473533224</v>
       </c>
       <c r="AC3" t="n">
-        <v>192.7236829375501</v>
+        <v>251.4917220621515</v>
       </c>
       <c r="AD3" t="n">
-        <v>155716.0734375639</v>
+        <v>203199.2273324255</v>
       </c>
       <c r="AE3" t="n">
-        <v>213057.6013854996</v>
+        <v>278026.1473533224</v>
       </c>
       <c r="AF3" t="n">
-        <v>2.277783903639014e-06</v>
+        <v>4.149627595211956e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>10</v>
+        <v>9.826388888888889</v>
       </c>
       <c r="AH3" t="n">
-        <v>192723.6829375501</v>
+        <v>251491.7220621515</v>
       </c>
     </row>
   </sheetData>
@@ -4369,28 +4369,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>146.9157066905485</v>
+        <v>190.8437051798639</v>
       </c>
       <c r="AB2" t="n">
-        <v>201.0165513574594</v>
+        <v>261.1207768570291</v>
       </c>
       <c r="AC2" t="n">
-        <v>181.8318138244623</v>
+        <v>236.1997763991825</v>
       </c>
       <c r="AD2" t="n">
-        <v>146915.7066905485</v>
+        <v>190843.705179864</v>
       </c>
       <c r="AE2" t="n">
-        <v>201016.5513574594</v>
+        <v>261120.7768570291</v>
       </c>
       <c r="AF2" t="n">
-        <v>2.371941220231551e-06</v>
+        <v>4.648240551083396e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>11</v>
+        <v>10.24305555555556</v>
       </c>
       <c r="AH2" t="n">
-        <v>181831.8138244623</v>
+        <v>236199.7763991825</v>
       </c>
     </row>
   </sheetData>
@@ -4666,28 +4666,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>279.1786744645763</v>
+        <v>340.2330029132238</v>
       </c>
       <c r="AB2" t="n">
-        <v>381.9845788962971</v>
+        <v>465.5218046066083</v>
       </c>
       <c r="AC2" t="n">
-        <v>345.5285068051574</v>
+        <v>421.0930569389091</v>
       </c>
       <c r="AD2" t="n">
-        <v>279178.6744645763</v>
+        <v>340233.0029132238</v>
       </c>
       <c r="AE2" t="n">
-        <v>381984.5788962971</v>
+        <v>465521.8046066083</v>
       </c>
       <c r="AF2" t="n">
-        <v>1.588539773044053e-06</v>
+        <v>2.73305282655392e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>14</v>
+        <v>13.07291666666667</v>
       </c>
       <c r="AH2" t="n">
-        <v>345528.5068051574</v>
+        <v>421093.0569389091</v>
       </c>
     </row>
     <row r="3">
@@ -4772,28 +4772,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>207.1441912813687</v>
+        <v>268.1130893668961</v>
       </c>
       <c r="AB3" t="n">
-        <v>283.42382106779</v>
+        <v>366.8441571864907</v>
       </c>
       <c r="AC3" t="n">
-        <v>256.3742493729947</v>
+        <v>331.8330656936195</v>
       </c>
       <c r="AD3" t="n">
-        <v>207144.1912813687</v>
+        <v>268113.0893668961</v>
       </c>
       <c r="AE3" t="n">
-        <v>283423.82106779</v>
+        <v>366844.1571864907</v>
       </c>
       <c r="AF3" t="n">
-        <v>1.940663217855201e-06</v>
+        <v>3.338874595997475e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>11</v>
+        <v>10.703125</v>
       </c>
       <c r="AH3" t="n">
-        <v>256374.2493729947</v>
+        <v>331833.0656936195</v>
       </c>
     </row>
     <row r="4">
@@ -4878,28 +4878,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>192.4259643252365</v>
+        <v>243.2192454292957</v>
       </c>
       <c r="AB4" t="n">
-        <v>263.2856936240736</v>
+        <v>332.7833016720242</v>
       </c>
       <c r="AC4" t="n">
-        <v>238.1580765484608</v>
+        <v>301.0229304248426</v>
       </c>
       <c r="AD4" t="n">
-        <v>192425.9643252365</v>
+        <v>243219.2454292957</v>
       </c>
       <c r="AE4" t="n">
-        <v>263285.6936240736</v>
+        <v>332783.3016720242</v>
       </c>
       <c r="AF4" t="n">
-        <v>2.069571746376958e-06</v>
+        <v>3.560659296778476e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>11</v>
+        <v>10.03472222222222</v>
       </c>
       <c r="AH4" t="n">
-        <v>238158.0765484608</v>
+        <v>301022.9304248426</v>
       </c>
     </row>
     <row r="5">
@@ -4984,28 +4984,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>176.5609046769988</v>
+        <v>227.4394371270785</v>
       </c>
       <c r="AB5" t="n">
-        <v>241.5784190963317</v>
+        <v>311.1926717969314</v>
       </c>
       <c r="AC5" t="n">
-        <v>218.5225138352885</v>
+        <v>281.4928799623825</v>
       </c>
       <c r="AD5" t="n">
-        <v>176560.9046769988</v>
+        <v>227439.4371270785</v>
       </c>
       <c r="AE5" t="n">
-        <v>241578.4190963317</v>
+        <v>311192.6717969315</v>
       </c>
       <c r="AF5" t="n">
-        <v>2.115779722722886e-06</v>
+        <v>3.640159251708513e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>10</v>
+        <v>9.817708333333334</v>
       </c>
       <c r="AH5" t="n">
-        <v>218522.5138352885</v>
+        <v>281492.8799623825</v>
       </c>
     </row>
   </sheetData>
@@ -5281,28 +5281,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>142.5201623878319</v>
+        <v>185.5222884564171</v>
       </c>
       <c r="AB2" t="n">
-        <v>195.0023737247568</v>
+        <v>253.8397797316757</v>
       </c>
       <c r="AC2" t="n">
-        <v>176.3916208640717</v>
+        <v>229.6136674205269</v>
       </c>
       <c r="AD2" t="n">
-        <v>142520.1623878319</v>
+        <v>185522.2884564171</v>
       </c>
       <c r="AE2" t="n">
-        <v>195002.3737247568</v>
+        <v>253839.7797316757</v>
       </c>
       <c r="AF2" t="n">
-        <v>2.367863401510678e-06</v>
+        <v>4.74676193822427e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>11</v>
+        <v>10.49479166666667</v>
       </c>
       <c r="AH2" t="n">
-        <v>176391.6208640717</v>
+        <v>229613.6674205269</v>
       </c>
     </row>
   </sheetData>
@@ -5578,28 +5578,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>218.7293878795247</v>
+        <v>277.6148983454171</v>
       </c>
       <c r="AB2" t="n">
-        <v>299.2751981561813</v>
+        <v>379.8449514211302</v>
       </c>
       <c r="AC2" t="n">
-        <v>270.7127932796224</v>
+        <v>343.5930823732344</v>
       </c>
       <c r="AD2" t="n">
-        <v>218729.3878795247</v>
+        <v>277614.8983454171</v>
       </c>
       <c r="AE2" t="n">
-        <v>299275.1981561813</v>
+        <v>379844.9514211302</v>
       </c>
       <c r="AF2" t="n">
-        <v>1.846221619503157e-06</v>
+        <v>3.269795675145112e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>12</v>
+        <v>11.70138888888889</v>
       </c>
       <c r="AH2" t="n">
-        <v>270712.7932796224</v>
+        <v>343593.0823732344</v>
       </c>
     </row>
     <row r="3">
@@ -5684,28 +5684,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>170.0068623002404</v>
+        <v>228.7216910569861</v>
       </c>
       <c r="AB3" t="n">
-        <v>232.6108891725125</v>
+        <v>312.947108192881</v>
       </c>
       <c r="AC3" t="n">
-        <v>210.4108323813884</v>
+        <v>283.0798754110702</v>
       </c>
       <c r="AD3" t="n">
-        <v>170006.8623002404</v>
+        <v>228721.6910569861</v>
       </c>
       <c r="AE3" t="n">
-        <v>232610.8891725125</v>
+        <v>312947.108192881</v>
       </c>
       <c r="AF3" t="n">
-        <v>2.161256040305858e-06</v>
+        <v>3.82774504361786e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>10</v>
+        <v>9.991319444444445</v>
       </c>
       <c r="AH3" t="n">
-        <v>210410.8323813884</v>
+        <v>283079.8754110702</v>
       </c>
     </row>
     <row r="4">
@@ -5790,28 +5790,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>165.176625607891</v>
+        <v>214.2478843294651</v>
       </c>
       <c r="AB4" t="n">
-        <v>226.00194623504</v>
+        <v>293.1434072890098</v>
       </c>
       <c r="AC4" t="n">
-        <v>204.4326376821565</v>
+        <v>265.1662119267893</v>
       </c>
       <c r="AD4" t="n">
-        <v>165176.625607891</v>
+        <v>214247.8843294651</v>
       </c>
       <c r="AE4" t="n">
-        <v>226001.94623504</v>
+        <v>293143.4072890098</v>
       </c>
       <c r="AF4" t="n">
-        <v>2.207380482868301e-06</v>
+        <v>3.90943485876028e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>10</v>
+        <v>9.782986111111111</v>
       </c>
       <c r="AH4" t="n">
-        <v>204432.6376821565</v>
+        <v>265166.2119267893</v>
       </c>
     </row>
   </sheetData>
@@ -6087,28 +6087,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>248.5281802802463</v>
+        <v>308.4560790971826</v>
       </c>
       <c r="AB2" t="n">
-        <v>340.0472205487668</v>
+        <v>422.043215542563</v>
       </c>
       <c r="AC2" t="n">
-        <v>307.5935910789653</v>
+        <v>381.7640033925533</v>
       </c>
       <c r="AD2" t="n">
-        <v>248528.1802802462</v>
+        <v>308456.0790971826</v>
       </c>
       <c r="AE2" t="n">
-        <v>340047.2205487668</v>
+        <v>422043.215542563</v>
       </c>
       <c r="AF2" t="n">
-        <v>1.708013484107922e-06</v>
+        <v>2.978626373905751e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>13</v>
+        <v>12.38715277777778</v>
       </c>
       <c r="AH2" t="n">
-        <v>307593.5910789653</v>
+        <v>381764.0033925533</v>
       </c>
     </row>
     <row r="3">
@@ -6193,28 +6193,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>194.1545805999292</v>
+        <v>244.0802877230362</v>
       </c>
       <c r="AB3" t="n">
-        <v>265.6508626722748</v>
+        <v>333.9614177248244</v>
       </c>
       <c r="AC3" t="n">
-        <v>240.297517182238</v>
+        <v>302.0886087350602</v>
       </c>
       <c r="AD3" t="n">
-        <v>194154.5805999292</v>
+        <v>244080.2877230362</v>
       </c>
       <c r="AE3" t="n">
-        <v>265650.8626722748</v>
+        <v>333961.4177248244</v>
       </c>
       <c r="AF3" t="n">
-        <v>2.038354553561762e-06</v>
+        <v>3.554712353913897e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>11</v>
+        <v>10.38194444444444</v>
       </c>
       <c r="AH3" t="n">
-        <v>240297.5171822381</v>
+        <v>302088.6087350602</v>
       </c>
     </row>
     <row r="4">
@@ -6299,28 +6299,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>171.2258856486707</v>
+        <v>221.2368441177983</v>
       </c>
       <c r="AB4" t="n">
-        <v>234.2788106973486</v>
+        <v>302.7060104025474</v>
       </c>
       <c r="AC4" t="n">
-        <v>211.9195698168373</v>
+        <v>273.8161736203716</v>
       </c>
       <c r="AD4" t="n">
-        <v>171225.8856486707</v>
+        <v>221236.8441177983</v>
       </c>
       <c r="AE4" t="n">
-        <v>234278.8106973486</v>
+        <v>302706.0104025474</v>
       </c>
       <c r="AF4" t="n">
-        <v>2.158429827184077e-06</v>
+        <v>3.764113146233858e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>10</v>
+        <v>9.800347222222221</v>
       </c>
       <c r="AH4" t="n">
-        <v>211919.5698168373</v>
+        <v>273816.1736203716</v>
       </c>
     </row>
     <row r="5">
@@ -6405,28 +6405,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>171.5808259940971</v>
+        <v>221.5917844632247</v>
       </c>
       <c r="AB5" t="n">
-        <v>234.7644557368236</v>
+        <v>303.1916554420225</v>
       </c>
       <c r="AC5" t="n">
-        <v>212.358865575352</v>
+        <v>274.2554693788865</v>
       </c>
       <c r="AD5" t="n">
-        <v>171580.8259940971</v>
+        <v>221591.7844632246</v>
       </c>
       <c r="AE5" t="n">
-        <v>234764.4557368236</v>
+        <v>303191.6554420225</v>
       </c>
       <c r="AF5" t="n">
-        <v>2.152604006965699e-06</v>
+        <v>3.753953424478992e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>10</v>
+        <v>9.826388888888889</v>
       </c>
       <c r="AH5" t="n">
-        <v>212358.865575352</v>
+        <v>274255.4693788865</v>
       </c>
     </row>
   </sheetData>
@@ -6702,28 +6702,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>301.2224151223278</v>
+        <v>373.5843923892734</v>
       </c>
       <c r="AB2" t="n">
-        <v>412.145797365435</v>
+        <v>511.1546470471996</v>
       </c>
       <c r="AC2" t="n">
-        <v>372.8111809151367</v>
+        <v>462.370764943067</v>
       </c>
       <c r="AD2" t="n">
-        <v>301222.4151223279</v>
+        <v>373584.3923892734</v>
       </c>
       <c r="AE2" t="n">
-        <v>412145.797365435</v>
+        <v>511154.6470471996</v>
       </c>
       <c r="AF2" t="n">
-        <v>1.478435298642005e-06</v>
+        <v>2.513242022353577e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>14</v>
+        <v>13.81076388888889</v>
       </c>
       <c r="AH2" t="n">
-        <v>372811.1809151367</v>
+        <v>462370.764943067</v>
       </c>
     </row>
     <row r="3">
@@ -6808,28 +6808,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>231.1940391354978</v>
+        <v>282.8812552632984</v>
       </c>
       <c r="AB3" t="n">
-        <v>316.3298839061983</v>
+        <v>387.0506132914453</v>
       </c>
       <c r="AC3" t="n">
-        <v>286.1398037580651</v>
+        <v>350.1110459878565</v>
       </c>
       <c r="AD3" t="n">
-        <v>231194.0391354978</v>
+        <v>282881.2552632985</v>
       </c>
       <c r="AE3" t="n">
-        <v>316329.8839061983</v>
+        <v>387050.6132914453</v>
       </c>
       <c r="AF3" t="n">
-        <v>1.841803294444273e-06</v>
+        <v>3.130943532502513e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>12</v>
+        <v>11.08506944444444</v>
       </c>
       <c r="AH3" t="n">
-        <v>286139.803758065</v>
+        <v>350111.0459878565</v>
       </c>
     </row>
     <row r="4">
@@ -6914,28 +6914,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>204.6477677704667</v>
+        <v>256.2496430436922</v>
       </c>
       <c r="AB4" t="n">
-        <v>280.0081042857432</v>
+        <v>350.6120665486037</v>
       </c>
       <c r="AC4" t="n">
-        <v>253.2845238066367</v>
+        <v>317.1501430044357</v>
       </c>
       <c r="AD4" t="n">
-        <v>204647.7677704667</v>
+        <v>256249.6430436922</v>
       </c>
       <c r="AE4" t="n">
-        <v>280008.1042857432</v>
+        <v>350612.0665486037</v>
       </c>
       <c r="AF4" t="n">
-        <v>1.985536465018998e-06</v>
+        <v>3.375280396365492e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>11</v>
+        <v>10.28645833333333</v>
       </c>
       <c r="AH4" t="n">
-        <v>253284.5238066367</v>
+        <v>317150.1430044357</v>
       </c>
     </row>
     <row r="5">
@@ -7020,28 +7020,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>184.4487927896739</v>
+        <v>246.302663023626</v>
       </c>
       <c r="AB5" t="n">
-        <v>252.3709756011521</v>
+        <v>337.0021696553686</v>
       </c>
       <c r="AC5" t="n">
-        <v>228.2850438947404</v>
+        <v>304.8391555690762</v>
       </c>
       <c r="AD5" t="n">
-        <v>184448.7927896739</v>
+        <v>246302.663023626</v>
       </c>
       <c r="AE5" t="n">
-        <v>252370.9756011521</v>
+        <v>337002.1696553685</v>
       </c>
       <c r="AF5" t="n">
-        <v>2.05226216018186e-06</v>
+        <v>3.48870965580491e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>10</v>
+        <v>9.947916666666666</v>
       </c>
       <c r="AH5" t="n">
-        <v>228285.0438947404</v>
+        <v>304839.1555690762</v>
       </c>
     </row>
     <row r="6">
@@ -7126,28 +7126,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>183.6130553544416</v>
+        <v>245.4669255883937</v>
       </c>
       <c r="AB6" t="n">
-        <v>251.2274827721342</v>
+        <v>335.8586768263507</v>
       </c>
       <c r="AC6" t="n">
-        <v>227.2506844164214</v>
+        <v>303.8047960907573</v>
       </c>
       <c r="AD6" t="n">
-        <v>183613.0553544416</v>
+        <v>245466.9255883936</v>
       </c>
       <c r="AE6" t="n">
-        <v>251227.4827721342</v>
+        <v>335858.6768263507</v>
       </c>
       <c r="AF6" t="n">
-        <v>2.059155893849955e-06</v>
+        <v>3.500428546148969e-06</v>
       </c>
       <c r="AG6" t="n">
-        <v>10</v>
+        <v>9.921875</v>
       </c>
       <c r="AH6" t="n">
-        <v>227250.6844164215</v>
+        <v>303804.7960907573</v>
       </c>
     </row>
   </sheetData>
@@ -7423,28 +7423,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>200.7194959902629</v>
+        <v>248.7603173045833</v>
       </c>
       <c r="AB2" t="n">
-        <v>274.6332695329514</v>
+        <v>340.3648406666273</v>
       </c>
       <c r="AC2" t="n">
-        <v>248.4226557390216</v>
+        <v>307.88089797856</v>
       </c>
       <c r="AD2" t="n">
-        <v>200719.4959902629</v>
+        <v>248760.3173045833</v>
       </c>
       <c r="AE2" t="n">
-        <v>274633.2695329514</v>
+        <v>340364.8406666273</v>
       </c>
       <c r="AF2" t="n">
-        <v>1.988833173535183e-06</v>
+        <v>3.586336849251698e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>12</v>
+        <v>11.11111111111111</v>
       </c>
       <c r="AH2" t="n">
-        <v>248422.6557390216</v>
+        <v>307880.89797856</v>
       </c>
     </row>
     <row r="3">
@@ -7529,28 +7529,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>158.8126653969335</v>
+        <v>206.8533972027028</v>
       </c>
       <c r="AB3" t="n">
-        <v>217.2944951163027</v>
+        <v>283.0259437804303</v>
       </c>
       <c r="AC3" t="n">
-        <v>196.5562134772043</v>
+        <v>256.0143449355162</v>
       </c>
       <c r="AD3" t="n">
-        <v>158812.6653969335</v>
+        <v>206853.3972027028</v>
       </c>
       <c r="AE3" t="n">
-        <v>217294.4951163027</v>
+        <v>283025.9437804303</v>
       </c>
       <c r="AF3" t="n">
-        <v>2.259763490283228e-06</v>
+        <v>4.074888323282991e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>10</v>
+        <v>9.774305555555555</v>
       </c>
       <c r="AH3" t="n">
-        <v>196556.2134772043</v>
+        <v>256014.3449355162</v>
       </c>
     </row>
     <row r="4">
@@ -7635,28 +7635,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>159.2874884674773</v>
+        <v>207.3282202732466</v>
       </c>
       <c r="AB4" t="n">
-        <v>217.9441689891359</v>
+        <v>283.6756176532634</v>
       </c>
       <c r="AC4" t="n">
-        <v>197.1438833874375</v>
+        <v>256.6020148457494</v>
       </c>
       <c r="AD4" t="n">
-        <v>159287.4884674773</v>
+        <v>207328.2202732466</v>
       </c>
       <c r="AE4" t="n">
-        <v>217944.1689891359</v>
+        <v>283675.6176532634</v>
       </c>
       <c r="AF4" t="n">
-        <v>2.259203506539479e-06</v>
+        <v>4.073878540078492e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>10</v>
+        <v>9.782986111111111</v>
       </c>
       <c r="AH4" t="n">
-        <v>197143.8833874375</v>
+        <v>256602.0148457493</v>
       </c>
     </row>
   </sheetData>
@@ -7932,28 +7932,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>163.3602121048783</v>
+        <v>209.5335632562384</v>
       </c>
       <c r="AB2" t="n">
-        <v>223.5166491457111</v>
+        <v>286.693065215457</v>
       </c>
       <c r="AC2" t="n">
-        <v>202.1845338588961</v>
+        <v>259.3314814476224</v>
       </c>
       <c r="AD2" t="n">
-        <v>163360.2121048783</v>
+        <v>209533.5632562384</v>
       </c>
       <c r="AE2" t="n">
-        <v>223516.6491457111</v>
+        <v>286693.065215457</v>
       </c>
       <c r="AF2" t="n">
-        <v>2.256430919291559e-06</v>
+        <v>4.209778843641148e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>11</v>
+        <v>10.19965277777778</v>
       </c>
       <c r="AH2" t="n">
-        <v>202184.5338588961</v>
+        <v>259331.4814476224</v>
       </c>
     </row>
     <row r="3">
@@ -8038,28 +8038,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>149.1295183059069</v>
+        <v>195.3881208032875</v>
       </c>
       <c r="AB3" t="n">
-        <v>204.0455860760667</v>
+        <v>267.3386467984619</v>
       </c>
       <c r="AC3" t="n">
-        <v>184.5717617208036</v>
+        <v>241.8242215602422</v>
       </c>
       <c r="AD3" t="n">
-        <v>149129.5183059069</v>
+        <v>195388.1208032875</v>
       </c>
       <c r="AE3" t="n">
-        <v>204045.5860760667</v>
+        <v>267338.6467984619</v>
       </c>
       <c r="AF3" t="n">
-        <v>2.3305917766305e-06</v>
+        <v>4.348139298456126e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>10</v>
+        <v>9.878472222222221</v>
       </c>
       <c r="AH3" t="n">
-        <v>184571.7617208036</v>
+        <v>241824.2215602422</v>
       </c>
     </row>
   </sheetData>
@@ -13748,28 +13748,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>150.8846763618993</v>
+        <v>195.6335382483416</v>
       </c>
       <c r="AB2" t="n">
-        <v>206.4470707603828</v>
+        <v>267.6744377738382</v>
       </c>
       <c r="AC2" t="n">
-        <v>186.7440520773543</v>
+        <v>242.1279651162144</v>
       </c>
       <c r="AD2" t="n">
-        <v>150884.6763618993</v>
+        <v>195633.5382483416</v>
       </c>
       <c r="AE2" t="n">
-        <v>206447.0707603828</v>
+        <v>267674.4377738382</v>
       </c>
       <c r="AF2" t="n">
-        <v>2.363055535318213e-06</v>
+        <v>4.544243425041501e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>11</v>
+        <v>10.078125</v>
       </c>
       <c r="AH2" t="n">
-        <v>186744.0520773543</v>
+        <v>242127.9651162144</v>
       </c>
     </row>
   </sheetData>
@@ -14045,28 +14045,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>146.7431361189397</v>
+        <v>188.7535593780033</v>
       </c>
       <c r="AB2" t="n">
-        <v>200.7804326881079</v>
+        <v>258.2609471601999</v>
       </c>
       <c r="AC2" t="n">
-        <v>181.6182299895191</v>
+        <v>233.6128848348216</v>
       </c>
       <c r="AD2" t="n">
-        <v>146743.1361189397</v>
+        <v>188753.5593780033</v>
       </c>
       <c r="AE2" t="n">
-        <v>200780.4326881079</v>
+        <v>258260.9471601999</v>
       </c>
       <c r="AF2" t="n">
-        <v>2.31128050222189e-06</v>
+        <v>4.767245595361808e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>12</v>
+        <v>11.05902777777778</v>
       </c>
       <c r="AH2" t="n">
-        <v>181618.2299895191</v>
+        <v>233612.8848348216</v>
       </c>
     </row>
   </sheetData>
@@ -14342,28 +14342,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>238.0374190944013</v>
+        <v>297.413523569508</v>
       </c>
       <c r="AB2" t="n">
-        <v>325.6932982745815</v>
+        <v>406.934303906431</v>
       </c>
       <c r="AC2" t="n">
-        <v>294.6095870007674</v>
+        <v>368.0970650774831</v>
       </c>
       <c r="AD2" t="n">
-        <v>238037.4190944013</v>
+        <v>297413.523569508</v>
       </c>
       <c r="AE2" t="n">
-        <v>325693.2982745816</v>
+        <v>406934.303906431</v>
       </c>
       <c r="AF2" t="n">
-        <v>1.778832611846047e-06</v>
+        <v>3.125338728023576e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>13</v>
+        <v>12.01388888888889</v>
       </c>
       <c r="AH2" t="n">
-        <v>294609.5870007674</v>
+        <v>368097.0650774831</v>
       </c>
     </row>
     <row r="3">
@@ -14448,28 +14448,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>186.6553168534833</v>
+        <v>236.121195358399</v>
       </c>
       <c r="AB3" t="n">
-        <v>255.3900391702261</v>
+        <v>323.0714364211598</v>
       </c>
       <c r="AC3" t="n">
-        <v>231.0159722740653</v>
+        <v>292.237951962829</v>
       </c>
       <c r="AD3" t="n">
-        <v>186655.3168534833</v>
+        <v>236121.195358399</v>
       </c>
       <c r="AE3" t="n">
-        <v>255390.0391702261</v>
+        <v>323071.4364211598</v>
       </c>
       <c r="AF3" t="n">
-        <v>2.104248636749596e-06</v>
+        <v>3.697081846840744e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>11</v>
+        <v>10.15625</v>
       </c>
       <c r="AH3" t="n">
-        <v>231015.9722740653</v>
+        <v>292237.951962829</v>
       </c>
     </row>
     <row r="4">
@@ -14554,28 +14554,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>168.3740997171194</v>
+        <v>217.9252295680557</v>
       </c>
       <c r="AB4" t="n">
-        <v>230.3768713738861</v>
+        <v>298.174913277469</v>
       </c>
       <c r="AC4" t="n">
-        <v>208.3900261059986</v>
+        <v>269.7175180454746</v>
       </c>
       <c r="AD4" t="n">
-        <v>168374.0997171194</v>
+        <v>217925.2295680557</v>
       </c>
       <c r="AE4" t="n">
-        <v>230376.8713738861</v>
+        <v>298174.9132774691</v>
       </c>
       <c r="AF4" t="n">
-        <v>2.18024797620165e-06</v>
+        <v>3.830609688253105e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>10</v>
+        <v>9.800347222222221</v>
       </c>
       <c r="AH4" t="n">
-        <v>208390.0261059986</v>
+        <v>269717.5180454746</v>
       </c>
     </row>
   </sheetData>
@@ -14851,28 +14851,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>290.1827210488318</v>
+        <v>361.8174762551485</v>
       </c>
       <c r="AB2" t="n">
-        <v>397.0408008971485</v>
+        <v>495.0546332727877</v>
       </c>
       <c r="AC2" t="n">
-        <v>359.1477841097878</v>
+        <v>447.8073138867738</v>
       </c>
       <c r="AD2" t="n">
-        <v>290182.7210488318</v>
+        <v>361817.4762551485</v>
       </c>
       <c r="AE2" t="n">
-        <v>397040.8008971486</v>
+        <v>495054.6332727877</v>
       </c>
       <c r="AF2" t="n">
-        <v>1.531537593386515e-06</v>
+        <v>2.618758606472703e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>14</v>
+        <v>13.44618055555556</v>
       </c>
       <c r="AH2" t="n">
-        <v>359147.7841097878</v>
+        <v>447807.3138867738</v>
       </c>
     </row>
     <row r="3">
@@ -14957,28 +14957,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>213.8333705985154</v>
+        <v>275.2954703784397</v>
       </c>
       <c r="AB3" t="n">
-        <v>292.5762513152696</v>
+        <v>376.6714077507717</v>
       </c>
       <c r="AC3" t="n">
-        <v>264.6531845231743</v>
+        <v>340.7224172566784</v>
       </c>
       <c r="AD3" t="n">
-        <v>213833.3705985154</v>
+        <v>275295.4703784398</v>
       </c>
       <c r="AE3" t="n">
-        <v>292576.2513152696</v>
+        <v>376671.4077507717</v>
       </c>
       <c r="AF3" t="n">
-        <v>1.891190456991385e-06</v>
+        <v>3.233724922660354e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>11</v>
+        <v>10.88541666666667</v>
       </c>
       <c r="AH3" t="n">
-        <v>264653.1845231742</v>
+        <v>340722.4172566784</v>
       </c>
     </row>
     <row r="4">
@@ -15063,28 +15063,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>198.7372303498088</v>
+        <v>249.9415128658653</v>
       </c>
       <c r="AB4" t="n">
-        <v>271.9210462322953</v>
+        <v>341.9810045442429</v>
       </c>
       <c r="AC4" t="n">
-        <v>245.96928322355</v>
+        <v>309.3428174439968</v>
       </c>
       <c r="AD4" t="n">
-        <v>198737.2303498088</v>
+        <v>249941.5128658653</v>
       </c>
       <c r="AE4" t="n">
-        <v>271921.0462322953</v>
+        <v>341981.0045442429</v>
       </c>
       <c r="AF4" t="n">
-        <v>2.027246471026604e-06</v>
+        <v>3.46636554425245e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>11</v>
+        <v>10.15625</v>
       </c>
       <c r="AH4" t="n">
-        <v>245969.28322355</v>
+        <v>309342.8174439967</v>
       </c>
     </row>
     <row r="5">
@@ -15169,28 +15169,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>180.3384013005784</v>
+        <v>231.6279351626555</v>
       </c>
       <c r="AB5" t="n">
-        <v>246.7469566281001</v>
+        <v>316.923559592697</v>
       </c>
       <c r="AC5" t="n">
-        <v>223.1977733991145</v>
+        <v>286.6768198702735</v>
       </c>
       <c r="AD5" t="n">
-        <v>180338.4013005784</v>
+        <v>231627.9351626555</v>
       </c>
       <c r="AE5" t="n">
-        <v>246746.9566281001</v>
+        <v>316923.559592697</v>
       </c>
       <c r="AF5" t="n">
-        <v>2.080577581671971e-06</v>
+        <v>3.557555800109299e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>10</v>
+        <v>9.895833333333334</v>
       </c>
       <c r="AH5" t="n">
-        <v>223197.7733991146</v>
+        <v>286676.8198702735</v>
       </c>
     </row>
     <row r="6">
@@ -15275,28 +15275,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>180.5831569819894</v>
+        <v>231.8726908440666</v>
       </c>
       <c r="AB6" t="n">
-        <v>247.0818421492651</v>
+        <v>317.258445113862</v>
       </c>
       <c r="AC6" t="n">
-        <v>223.5006979161545</v>
+        <v>286.9797443873135</v>
       </c>
       <c r="AD6" t="n">
-        <v>180583.1569819895</v>
+        <v>231872.6908440666</v>
       </c>
       <c r="AE6" t="n">
-        <v>247081.8421492651</v>
+        <v>317258.445113862</v>
       </c>
       <c r="AF6" t="n">
-        <v>2.080672476886642e-06</v>
+        <v>3.557718060351037e-06</v>
       </c>
       <c r="AG6" t="n">
-        <v>10</v>
+        <v>9.895833333333334</v>
       </c>
       <c r="AH6" t="n">
-        <v>223500.6979161545</v>
+        <v>286979.7443873135</v>
       </c>
     </row>
   </sheetData>
@@ -15572,28 +15572,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>149.7774985183968</v>
+        <v>198.5198179728591</v>
       </c>
       <c r="AB2" t="n">
-        <v>204.9321811896644</v>
+        <v>271.6235730265958</v>
       </c>
       <c r="AC2" t="n">
-        <v>185.3737414411039</v>
+        <v>245.7002004430961</v>
       </c>
       <c r="AD2" t="n">
-        <v>149777.4985183968</v>
+        <v>198519.8179728591</v>
       </c>
       <c r="AE2" t="n">
-        <v>204932.1811896643</v>
+        <v>271623.5730265958</v>
       </c>
       <c r="AF2" t="n">
-        <v>2.152758747972722e-06</v>
+        <v>4.614353537050596e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>13</v>
+        <v>12.29166666666667</v>
       </c>
       <c r="AH2" t="n">
-        <v>185373.7414411039</v>
+        <v>245700.2004430961</v>
       </c>
     </row>
   </sheetData>
@@ -15869,28 +15869,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>172.6501577741652</v>
+        <v>219.4561263035409</v>
       </c>
       <c r="AB2" t="n">
-        <v>236.2275626539006</v>
+        <v>300.2695537293563</v>
       </c>
       <c r="AC2" t="n">
-        <v>213.6823356217472</v>
+        <v>271.6122489524807</v>
       </c>
       <c r="AD2" t="n">
-        <v>172650.1577741652</v>
+        <v>219456.126303541</v>
       </c>
       <c r="AE2" t="n">
-        <v>236227.5626539006</v>
+        <v>300269.5537293563</v>
       </c>
       <c r="AF2" t="n">
-        <v>2.161618316043754e-06</v>
+        <v>3.982635913955791e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>11</v>
+        <v>10.49479166666667</v>
       </c>
       <c r="AH2" t="n">
-        <v>213682.3356217472</v>
+        <v>271612.2489524807</v>
       </c>
     </row>
     <row r="3">
@@ -15975,28 +15975,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>152.7236128773165</v>
+        <v>199.6148327527129</v>
       </c>
       <c r="AB3" t="n">
-        <v>208.9631848289287</v>
+        <v>273.1218205570336</v>
       </c>
       <c r="AC3" t="n">
-        <v>189.0200317505873</v>
+        <v>247.055457332033</v>
       </c>
       <c r="AD3" t="n">
-        <v>152723.6128773165</v>
+        <v>199614.8327527129</v>
       </c>
       <c r="AE3" t="n">
-        <v>208963.1848289287</v>
+        <v>273121.8205570336</v>
       </c>
       <c r="AF3" t="n">
-        <v>2.301977712574565e-06</v>
+        <v>4.241238632731724e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>10</v>
+        <v>9.852430555555555</v>
       </c>
       <c r="AH3" t="n">
-        <v>189020.0317505873</v>
+        <v>247055.457332033</v>
       </c>
     </row>
   </sheetData>
@@ -16272,28 +16272,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>209.6574774618321</v>
+        <v>267.7694707066568</v>
       </c>
       <c r="AB2" t="n">
-        <v>286.8626100982593</v>
+        <v>366.3740029761657</v>
       </c>
       <c r="AC2" t="n">
-        <v>259.4848452047677</v>
+        <v>331.4077823412624</v>
       </c>
       <c r="AD2" t="n">
-        <v>209657.4774618321</v>
+        <v>267769.4707066567</v>
       </c>
       <c r="AE2" t="n">
-        <v>286862.6100982593</v>
+        <v>366374.0029761657</v>
       </c>
       <c r="AF2" t="n">
-        <v>1.915676255512744e-06</v>
+        <v>3.422215827714252e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>12</v>
+        <v>11.39756944444444</v>
       </c>
       <c r="AH2" t="n">
-        <v>259484.8452047677</v>
+        <v>331407.7823412624</v>
       </c>
     </row>
     <row r="3">
@@ -16378,28 +16378,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>163.2011179582999</v>
+        <v>211.7699391628111</v>
       </c>
       <c r="AB3" t="n">
-        <v>223.2989695156242</v>
+        <v>289.7529733927701</v>
       </c>
       <c r="AC3" t="n">
-        <v>201.9876292671893</v>
+        <v>262.0993562831018</v>
       </c>
       <c r="AD3" t="n">
-        <v>163201.1179582999</v>
+        <v>211769.9391628111</v>
       </c>
       <c r="AE3" t="n">
-        <v>223298.9695156242</v>
+        <v>289752.9733927701</v>
       </c>
       <c r="AF3" t="n">
-        <v>2.221090689851249e-06</v>
+        <v>3.967816426039712e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>10</v>
+        <v>9.835069444444445</v>
       </c>
       <c r="AH3" t="n">
-        <v>201987.6292671893</v>
+        <v>262099.3562831018</v>
       </c>
     </row>
     <row r="4">
@@ -16484,28 +16484,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>162.153046200647</v>
+        <v>210.7218674051582</v>
       </c>
       <c r="AB4" t="n">
-        <v>221.8649514991415</v>
+        <v>288.3189553762874</v>
       </c>
       <c r="AC4" t="n">
-        <v>200.6904719175423</v>
+        <v>260.8021989334548</v>
       </c>
       <c r="AD4" t="n">
-        <v>162153.046200647</v>
+        <v>210721.8674051582</v>
       </c>
       <c r="AE4" t="n">
-        <v>221864.9514991415</v>
+        <v>288318.9553762874</v>
       </c>
       <c r="AF4" t="n">
-        <v>2.231580585174465e-06</v>
+        <v>3.986555858500112e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>10</v>
+        <v>9.782986111111111</v>
       </c>
       <c r="AH4" t="n">
-        <v>200690.4719175423</v>
+        <v>260802.1989334548</v>
       </c>
     </row>
   </sheetData>
